--- a/Data/코스피200위치.xlsx
+++ b/Data/코스피200위치.xlsx
@@ -724,7 +724,7 @@
         <v>-0.6521739130434745</v>
       </c>
       <c r="F3" t="n">
-        <v>432657</v>
+        <v>432724</v>
       </c>
       <c r="G3" t="n">
         <v>-1200</v>
@@ -833,7 +833,7 @@
         <v>-0.5141388174807249</v>
       </c>
       <c r="F4" t="n">
-        <v>44054</v>
+        <v>44083</v>
       </c>
       <c r="G4" t="n">
         <v>-3100</v>
@@ -942,7 +942,7 @@
         <v>1.424501424501434</v>
       </c>
       <c r="F5" t="n">
-        <v>324790</v>
+        <v>325092</v>
       </c>
       <c r="G5" t="n">
         <v>-3700</v>
@@ -1051,7 +1051,7 @@
         <v>-0.5347593582887722</v>
       </c>
       <c r="F6" t="n">
-        <v>390435</v>
+        <v>390441</v>
       </c>
       <c r="G6" t="n">
         <v>-3300</v>
@@ -1269,7 +1269,7 @@
         <v>-2.425742574257428</v>
       </c>
       <c r="F8" t="n">
-        <v>2200174</v>
+        <v>2200691</v>
       </c>
       <c r="G8" t="n">
         <v>-840</v>
@@ -1380,7 +1380,7 @@
         <v>-2.582496413199431</v>
       </c>
       <c r="F9" t="n">
-        <v>316123</v>
+        <v>317206</v>
       </c>
       <c r="G9" t="n">
         <v>-3000</v>
@@ -1489,7 +1489,7 @@
         <v>-1.033057851239672</v>
       </c>
       <c r="F10" t="n">
-        <v>570828</v>
+        <v>571225</v>
       </c>
       <c r="G10" t="n">
         <v>-5600</v>
@@ -1598,7 +1598,7 @@
         <v>-0.4672897196261627</v>
       </c>
       <c r="F11" t="n">
-        <v>54486</v>
+        <v>54488</v>
       </c>
       <c r="G11" t="n">
         <v>-8000</v>
@@ -1707,7 +1707,7 @@
         <v>3.668261562998398</v>
       </c>
       <c r="F12" t="n">
-        <v>265706</v>
+        <v>265707</v>
       </c>
       <c r="G12" t="n">
         <v>-150</v>
@@ -1816,7 +1816,7 @@
         <v>0.1338688085676054</v>
       </c>
       <c r="F13" t="n">
-        <v>163281</v>
+        <v>163303</v>
       </c>
       <c r="G13" t="n">
         <v>-2500</v>
@@ -2034,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1150058</v>
+        <v>1150305</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>-0.4711425206124886</v>
       </c>
       <c r="F18" t="n">
-        <v>181031</v>
+        <v>181295</v>
       </c>
       <c r="G18" t="n">
         <v>-3500</v>
@@ -2587,7 +2587,7 @@
         <v>-0.4454342984409831</v>
       </c>
       <c r="F20" t="n">
-        <v>88900</v>
+        <v>88925</v>
       </c>
       <c r="G20" t="n">
         <v>-500</v>
@@ -2807,7 +2807,7 @@
         <v>1.959686450167974</v>
       </c>
       <c r="F22" t="n">
-        <v>194384</v>
+        <v>194396</v>
       </c>
       <c r="G22" t="n">
         <v>1700</v>
@@ -2918,7 +2918,7 @@
         <v>0.5673027333677139</v>
       </c>
       <c r="F23" t="n">
-        <v>229427</v>
+        <v>229715</v>
       </c>
       <c r="G23" t="n">
         <v>-800</v>
@@ -3247,7 +3247,7 @@
         <v>1.53256704980842</v>
       </c>
       <c r="F26" t="n">
-        <v>42120</v>
+        <v>42121</v>
       </c>
       <c r="G26" t="n">
         <v>-1800</v>
@@ -3356,7 +3356,7 @@
         <v>-1.21555915721232</v>
       </c>
       <c r="F27" t="n">
-        <v>182077</v>
+        <v>182145</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -3465,7 +3465,7 @@
         <v>-0.9181969949916491</v>
       </c>
       <c r="F28" t="n">
-        <v>44787</v>
+        <v>44807</v>
       </c>
       <c r="G28" t="n">
         <v>-1700</v>
@@ -3681,7 +3681,7 @@
         <v>-0.137174211248281</v>
       </c>
       <c r="F30" t="n">
-        <v>6526137</v>
+        <v>6528558</v>
       </c>
       <c r="G30" t="n">
         <v>-45</v>
@@ -3901,7 +3901,7 @@
         <v>-0.2214839424141801</v>
       </c>
       <c r="F32" t="n">
-        <v>1106263</v>
+        <v>1106269</v>
       </c>
       <c r="G32" t="n">
         <v>-50</v>
@@ -4339,7 +4339,7 @@
         <v>1.255230125523021</v>
       </c>
       <c r="F36" t="n">
-        <v>215952</v>
+        <v>216232</v>
       </c>
       <c r="G36" t="n">
         <v>-650</v>
@@ -4448,7 +4448,7 @@
         <v>-0.4699248120300759</v>
       </c>
       <c r="F37" t="n">
-        <v>199847</v>
+        <v>200119</v>
       </c>
       <c r="G37" t="n">
         <v>-5000</v>
@@ -4557,7 +4557,7 @@
         <v>-0.6648199445983383</v>
       </c>
       <c r="F38" t="n">
-        <v>1690574</v>
+        <v>1694977</v>
       </c>
       <c r="G38" t="n">
         <v>-430</v>
@@ -4666,7 +4666,7 @@
         <v>-1.328273244781786</v>
       </c>
       <c r="F39" t="n">
-        <v>207738</v>
+        <v>207753</v>
       </c>
       <c r="G39" t="n">
         <v>-1500</v>
@@ -4775,7 +4775,7 @@
         <v>-1.985559566786999</v>
       </c>
       <c r="F40" t="n">
-        <v>274716</v>
+        <v>274818</v>
       </c>
       <c r="G40" t="n">
         <v>-11500</v>
@@ -4884,7 +4884,7 @@
         <v>0.4008016032064132</v>
       </c>
       <c r="F41" t="n">
-        <v>1001296</v>
+        <v>1001442</v>
       </c>
       <c r="G41" t="n">
         <v>-700</v>
@@ -5102,7 +5102,7 @@
         <v>-0.1293661060802087</v>
       </c>
       <c r="F43" t="n">
-        <v>55787</v>
+        <v>55799</v>
       </c>
       <c r="G43" t="n">
         <v>-11000</v>
@@ -5211,7 +5211,7 @@
         <v>0.1490312965722884</v>
       </c>
       <c r="F44" t="n">
-        <v>23718</v>
+        <v>23719</v>
       </c>
       <c r="G44" t="n">
         <v>-2200</v>
@@ -5540,7 +5540,7 @@
         <v>0.9208103130755152</v>
       </c>
       <c r="F47" t="n">
-        <v>89595</v>
+        <v>89620</v>
       </c>
       <c r="G47" t="n">
         <v>-500</v>
@@ -5760,7 +5760,7 @@
         <v>-0.1773049645390046</v>
       </c>
       <c r="F49" t="n">
-        <v>94785</v>
+        <v>94795</v>
       </c>
       <c r="G49" t="n">
         <v>300</v>
@@ -5871,7 +5871,7 @@
         <v>-0.1108647450110856</v>
       </c>
       <c r="F50" t="n">
-        <v>666101</v>
+        <v>666301</v>
       </c>
       <c r="G50" t="n">
         <v>-1450</v>
@@ -5980,7 +5980,7 @@
         <v>1.576292559899106</v>
       </c>
       <c r="F51" t="n">
-        <v>136007</v>
+        <v>136038</v>
       </c>
       <c r="G51" t="n">
         <v>100</v>
@@ -6527,7 +6527,7 @@
         <v>-1.240135287485911</v>
       </c>
       <c r="F56" t="n">
-        <v>322512</v>
+        <v>322513</v>
       </c>
       <c r="G56" t="n">
         <v>-2700</v>
@@ -6638,7 +6638,7 @@
         <v>0.7266121707538709</v>
       </c>
       <c r="F57" t="n">
-        <v>224606</v>
+        <v>224620</v>
       </c>
       <c r="G57" t="n">
         <v>-1500</v>
@@ -6747,7 +6747,7 @@
         <v>0.7716049382715973</v>
       </c>
       <c r="F58" t="n">
-        <v>80697</v>
+        <v>80757</v>
       </c>
       <c r="G58" t="n">
         <v>-400</v>
@@ -6856,7 +6856,7 @@
         <v>0.1149425287356287</v>
       </c>
       <c r="F59" t="n">
-        <v>41404</v>
+        <v>41407</v>
       </c>
       <c r="G59" t="n">
         <v>-300</v>
@@ -6965,7 +6965,7 @@
         <v>0.9615384615384581</v>
       </c>
       <c r="F60" t="n">
-        <v>508318</v>
+        <v>508350</v>
       </c>
       <c r="G60" t="n">
         <v>-1250</v>
@@ -7183,7 +7183,7 @@
         <v>0.9157509157509125</v>
       </c>
       <c r="F62" t="n">
-        <v>175895</v>
+        <v>175905</v>
       </c>
       <c r="G62" t="n">
         <v>550</v>
@@ -7292,7 +7292,7 @@
         <v>-2.611367127496156</v>
       </c>
       <c r="F63" t="n">
-        <v>140986</v>
+        <v>141033</v>
       </c>
       <c r="G63" t="n">
         <v>-1000</v>
@@ -7403,7 +7403,7 @@
         <v>3.221809169764556</v>
       </c>
       <c r="F64" t="n">
-        <v>339179</v>
+        <v>339182</v>
       </c>
       <c r="G64" t="n">
         <v>1200</v>
@@ -7621,7 +7621,7 @@
         <v>-2.040816326530615</v>
       </c>
       <c r="F66" t="n">
-        <v>264850</v>
+        <v>264882</v>
       </c>
       <c r="G66" t="n">
         <v>-1050</v>
@@ -7730,7 +7730,7 @@
         <v>-2.248875562218888</v>
       </c>
       <c r="F67" t="n">
-        <v>110011</v>
+        <v>110013</v>
       </c>
       <c r="G67" t="n">
         <v>-300</v>
@@ -7841,7 +7841,7 @@
         <v>1.788908765652941</v>
       </c>
       <c r="F68" t="n">
-        <v>232346</v>
+        <v>232352</v>
       </c>
       <c r="G68" t="n">
         <v>1500</v>
@@ -7950,7 +7950,7 @@
         <v>6.928714190539642</v>
       </c>
       <c r="F69" t="n">
-        <v>1079354</v>
+        <v>1079540</v>
       </c>
       <c r="G69" t="n">
         <v>5400</v>
@@ -8168,7 +8168,7 @@
         <v>-0.4950495049504955</v>
       </c>
       <c r="F71" t="n">
-        <v>106547</v>
+        <v>106571</v>
       </c>
       <c r="G71" t="n">
         <v>710</v>
@@ -8388,7 +8388,7 @@
         <v>2.696629213483148</v>
       </c>
       <c r="F73" t="n">
-        <v>711352</v>
+        <v>711383</v>
       </c>
       <c r="G73" t="n">
         <v>-400</v>
@@ -8497,7 +8497,7 @@
         <v>0.7194244604316502</v>
       </c>
       <c r="F74" t="n">
-        <v>27378</v>
+        <v>27379</v>
       </c>
       <c r="G74" t="n">
         <v>100</v>
@@ -8606,7 +8606,7 @@
         <v>0.3891050583657574</v>
       </c>
       <c r="F75" t="n">
-        <v>64523</v>
+        <v>64525</v>
       </c>
       <c r="G75" t="n">
         <v>-850</v>
@@ -8715,7 +8715,7 @@
         <v>-0.09033423667570428</v>
       </c>
       <c r="F76" t="n">
-        <v>1290101</v>
+        <v>1290171</v>
       </c>
       <c r="G76" t="n">
         <v>150</v>
@@ -8824,7 +8824,7 @@
         <v>2.555168408826947</v>
       </c>
       <c r="F77" t="n">
-        <v>1246738</v>
+        <v>1246985</v>
       </c>
       <c r="G77" t="n">
         <v>-120</v>
@@ -8933,7 +8933,7 @@
         <v>2.926829268292686</v>
       </c>
       <c r="F78" t="n">
-        <v>73761</v>
+        <v>73766</v>
       </c>
       <c r="G78" t="n">
         <v>100</v>
@@ -9042,7 +9042,7 @@
         <v>-2.238805970149249</v>
       </c>
       <c r="F79" t="n">
-        <v>312738</v>
+        <v>312741</v>
       </c>
       <c r="G79" t="n">
         <v>-200</v>
@@ -9151,7 +9151,7 @@
         <v>3.296703296703307</v>
       </c>
       <c r="F80" t="n">
-        <v>1893906</v>
+        <v>1894318</v>
       </c>
       <c r="G80" t="n">
         <v>450</v>
@@ -9260,7 +9260,7 @@
         <v>0.1683501683501731</v>
       </c>
       <c r="F81" t="n">
-        <v>176041</v>
+        <v>176314</v>
       </c>
       <c r="G81" t="n">
         <v>-600</v>
@@ -9480,7 +9480,7 @@
         <v>-0.1930501930501927</v>
       </c>
       <c r="F83" t="n">
-        <v>24506</v>
+        <v>24512</v>
       </c>
       <c r="G83" t="n">
         <v>-2500</v>
@@ -9589,7 +9589,7 @@
         <v>-1.967213114754096</v>
       </c>
       <c r="F84" t="n">
-        <v>4025429</v>
+        <v>4025712</v>
       </c>
       <c r="G84" t="n">
         <v>-350</v>
@@ -9700,7 +9700,7 @@
         <v>3.386454183266929</v>
       </c>
       <c r="F85" t="n">
-        <v>299673</v>
+        <v>299723</v>
       </c>
       <c r="G85" t="n">
         <v>1400</v>
@@ -9809,7 +9809,7 @@
         <v>-0.1492537313432796</v>
       </c>
       <c r="F86" t="n">
-        <v>839580</v>
+        <v>839620</v>
       </c>
       <c r="G86" t="n">
         <v>-80</v>
@@ -9920,7 +9920,7 @@
         <v>-1.027900146842875</v>
       </c>
       <c r="F87" t="n">
-        <v>293033</v>
+        <v>293037</v>
       </c>
       <c r="G87" t="n">
         <v>-400</v>
@@ -10029,7 +10029,7 @@
         <v>3.311735061195109</v>
       </c>
       <c r="F88" t="n">
-        <v>171088</v>
+        <v>171146</v>
       </c>
       <c r="G88" t="n">
         <v>600</v>
@@ -10140,7 +10140,7 @@
         <v>-2.524271844660197</v>
       </c>
       <c r="F89" t="n">
-        <v>19854</v>
+        <v>19866</v>
       </c>
       <c r="G89" t="n">
         <v>-2300</v>
@@ -10360,7 +10360,7 @@
         <v>-1.364522417154002</v>
       </c>
       <c r="F91" t="n">
-        <v>1627675</v>
+        <v>1627737</v>
       </c>
       <c r="G91" t="n">
         <v>-100</v>
@@ -10471,7 +10471,7 @@
         <v>-2.960102960102962</v>
       </c>
       <c r="F92" t="n">
-        <v>2029625</v>
+        <v>2029642</v>
       </c>
       <c r="G92" t="n">
         <v>-1050</v>
@@ -10802,7 +10802,7 @@
         <v>1.369863013698636</v>
       </c>
       <c r="F95" t="n">
-        <v>59746</v>
+        <v>59760</v>
       </c>
       <c r="G95" t="n">
         <v>4000</v>
@@ -10911,7 +10911,7 @@
         <v>-1.473684210526316</v>
       </c>
       <c r="F96" t="n">
-        <v>417821</v>
+        <v>417831</v>
       </c>
       <c r="G96" t="n">
         <v>80</v>
@@ -11020,7 +11020,7 @@
         <v>1.001112347052291</v>
       </c>
       <c r="F97" t="n">
-        <v>115926</v>
+        <v>115931</v>
       </c>
       <c r="G97" t="n">
         <v>-1300</v>
@@ -11238,7 +11238,7 @@
         <v>-0.5586592178770999</v>
       </c>
       <c r="F99" t="n">
-        <v>88195</v>
+        <v>88198</v>
       </c>
       <c r="G99" t="n">
         <v>-2200</v>
@@ -11458,7 +11458,7 @@
         <v>1.991150442477885</v>
       </c>
       <c r="F101" t="n">
-        <v>708749</v>
+        <v>709346</v>
       </c>
       <c r="G101" t="n">
         <v>-1150</v>
@@ -11678,7 +11678,7 @@
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>64776</v>
+        <v>64777</v>
       </c>
       <c r="G103" t="n">
         <v>-450</v>
@@ -11787,7 +11787,7 @@
         <v>-1.45413870246085</v>
       </c>
       <c r="F104" t="n">
-        <v>2736915</v>
+        <v>2737156</v>
       </c>
       <c r="G104" t="n">
         <v>-2900</v>
@@ -11896,7 +11896,7 @@
         <v>1.497005988023958</v>
       </c>
       <c r="F105" t="n">
-        <v>83655</v>
+        <v>83660</v>
       </c>
       <c r="G105" t="n">
         <v>6000</v>
@@ -12114,7 +12114,7 @@
         <v>7.048458149779746</v>
       </c>
       <c r="F107" t="n">
-        <v>554106</v>
+        <v>554242</v>
       </c>
       <c r="G107" t="n">
         <v>3300</v>
@@ -12223,7 +12223,7 @@
         <v>0.3300330033003229</v>
       </c>
       <c r="F108" t="n">
-        <v>13070426</v>
+        <v>13072658</v>
       </c>
       <c r="G108" t="n">
         <v>-500</v>
@@ -12332,7 +12332,7 @@
         <v>-1.879699248120303</v>
       </c>
       <c r="F109" t="n">
-        <v>1255205</v>
+        <v>1258534</v>
       </c>
       <c r="G109" t="n">
         <v>350</v>
@@ -12441,7 +12441,7 @@
         <v>-0.1616814874696892</v>
       </c>
       <c r="F110" t="n">
-        <v>548136</v>
+        <v>548156</v>
       </c>
       <c r="G110" t="n">
         <v>-230</v>
@@ -12550,7 +12550,7 @@
         <v>-1.807228915662651</v>
       </c>
       <c r="F111" t="n">
-        <v>306835</v>
+        <v>306875</v>
       </c>
       <c r="G111" t="n">
         <v>-105</v>
@@ -12659,7 +12659,7 @@
         <v>-0.9779951100244544</v>
       </c>
       <c r="F112" t="n">
-        <v>41110</v>
+        <v>41193</v>
       </c>
       <c r="G112" t="n">
         <v>2700</v>
@@ -12768,7 +12768,7 @@
         <v>-1.541850220264318</v>
       </c>
       <c r="F113" t="n">
-        <v>1235609</v>
+        <v>1235610</v>
       </c>
       <c r="G113" t="n">
         <v>-600</v>
@@ -12879,7 +12879,7 @@
         <v>-0.3466204506065829</v>
       </c>
       <c r="F114" t="n">
-        <v>312913</v>
+        <v>313068</v>
       </c>
       <c r="G114" t="n">
         <v>-1000</v>
@@ -13210,7 +13210,7 @@
         <v>-1.077313054499363</v>
       </c>
       <c r="F117" t="n">
-        <v>71182</v>
+        <v>71183</v>
       </c>
       <c r="G117" t="n">
         <v>-460</v>
@@ -13321,7 +13321,7 @@
         <v>4.484304932735417</v>
       </c>
       <c r="F118" t="n">
-        <v>871421</v>
+        <v>871525</v>
       </c>
       <c r="G118" t="n">
         <v>3000</v>
@@ -13430,7 +13430,7 @@
         <v>2.117647058823535</v>
       </c>
       <c r="F119" t="n">
-        <v>286397</v>
+        <v>286398</v>
       </c>
       <c r="G119" t="n">
         <v>-2000</v>
@@ -13539,7 +13539,7 @@
         <v>-1.214128035320083</v>
       </c>
       <c r="F120" t="n">
-        <v>479199</v>
+        <v>479426</v>
       </c>
       <c r="G120" t="n">
         <v>-1450</v>
@@ -13648,7 +13648,7 @@
         <v>5.102040816326525</v>
       </c>
       <c r="F121" t="n">
-        <v>610720</v>
+        <v>610782</v>
       </c>
       <c r="G121" t="n">
         <v>9800</v>
@@ -13757,7 +13757,7 @@
         <v>0.9090909090909038</v>
       </c>
       <c r="F122" t="n">
-        <v>3290163</v>
+        <v>3291363</v>
       </c>
       <c r="G122" t="n">
         <v>-220</v>
@@ -13866,7 +13866,7 @@
         <v>-1.122194513715713</v>
       </c>
       <c r="F123" t="n">
-        <v>292433</v>
+        <v>292668</v>
       </c>
       <c r="G123" t="n">
         <v>-400</v>
@@ -13975,7 +13975,7 @@
         <v>1.434159061277707</v>
       </c>
       <c r="F124" t="n">
-        <v>721417</v>
+        <v>721481</v>
       </c>
       <c r="G124" t="n">
         <v>-400</v>
@@ -14086,7 +14086,7 @@
         <v>1.247872943845718</v>
       </c>
       <c r="F125" t="n">
-        <v>746303</v>
+        <v>746714</v>
       </c>
       <c r="G125" t="n">
         <v>4600</v>
@@ -14195,7 +14195,7 @@
         <v>2.294455066921608</v>
       </c>
       <c r="F126" t="n">
-        <v>506095</v>
+        <v>506144</v>
       </c>
       <c r="G126" t="n">
         <v>24000</v>
@@ -14304,7 +14304,7 @@
         <v>2.702702702702697</v>
       </c>
       <c r="F127" t="n">
-        <v>137341</v>
+        <v>137380</v>
       </c>
       <c r="G127" t="n">
         <v>0</v>
@@ -14524,7 +14524,7 @@
         <v>1.968019680196798</v>
       </c>
       <c r="F129" t="n">
-        <v>5401001</v>
+        <v>5407587</v>
       </c>
       <c r="G129" t="n">
         <v>260</v>
@@ -14633,7 +14633,7 @@
         <v>4.451038575667665</v>
       </c>
       <c r="F130" t="n">
-        <v>220326</v>
+        <v>220336</v>
       </c>
       <c r="G130" t="n">
         <v>2600</v>
@@ -14744,7 +14744,7 @@
         <v>-0.2941176470588225</v>
       </c>
       <c r="F131" t="n">
-        <v>174400</v>
+        <v>174408</v>
       </c>
       <c r="G131" t="n">
         <v>9000</v>
@@ -14853,7 +14853,7 @@
         <v>-1.923076923076927</v>
       </c>
       <c r="F132" t="n">
-        <v>1836652</v>
+        <v>1837077</v>
       </c>
       <c r="G132" t="n">
         <v>-600</v>
@@ -15182,7 +15182,7 @@
         <v>4.267589388696647</v>
       </c>
       <c r="F135" t="n">
-        <v>2750714</v>
+        <v>2751799</v>
       </c>
       <c r="G135" t="n">
         <v>430</v>
@@ -15291,7 +15291,7 @@
         <v>2.436323366555926</v>
       </c>
       <c r="F136" t="n">
-        <v>641753</v>
+        <v>642019</v>
       </c>
       <c r="G136" t="n">
         <v>80</v>
@@ -15509,7 +15509,7 @@
         <v>-2.251407129455907</v>
       </c>
       <c r="F138" t="n">
-        <v>1357285</v>
+        <v>1357369</v>
       </c>
       <c r="G138" t="n">
         <v>800</v>
@@ -15729,7 +15729,7 @@
         <v>3.254769921436584</v>
       </c>
       <c r="F140" t="n">
-        <v>176144</v>
+        <v>176150</v>
       </c>
       <c r="G140" t="n">
         <v>1100</v>
@@ -15838,7 +15838,7 @@
         <v>0.917431192660545</v>
       </c>
       <c r="F141" t="n">
-        <v>635454</v>
+        <v>635540</v>
       </c>
       <c r="G141" t="n">
         <v>300</v>
@@ -15947,7 +15947,7 @@
         <v>0.6289308176100628</v>
       </c>
       <c r="F142" t="n">
-        <v>341623</v>
+        <v>341883</v>
       </c>
       <c r="G142" t="n">
         <v>2300</v>
@@ -16165,7 +16165,7 @@
         <v>0.3472222222222321</v>
       </c>
       <c r="F144" t="n">
-        <v>243994</v>
+        <v>244030</v>
       </c>
       <c r="G144" t="n">
         <v>-3000</v>
@@ -16274,7 +16274,7 @@
         <v>-1.199040767386095</v>
       </c>
       <c r="F145" t="n">
-        <v>815121</v>
+        <v>815239</v>
       </c>
       <c r="G145" t="n">
         <v>-2000</v>
@@ -16494,7 +16494,7 @@
         <v>1.4240506329114</v>
       </c>
       <c r="F147" t="n">
-        <v>94295</v>
+        <v>94310</v>
       </c>
       <c r="G147" t="n">
         <v>100</v>
@@ -16605,7 +16605,7 @@
         <v>1.212553495007129</v>
       </c>
       <c r="F148" t="n">
-        <v>384947</v>
+        <v>385203</v>
       </c>
       <c r="G148" t="n">
         <v>40</v>
@@ -16714,7 +16714,7 @@
         <v>-1.118881118881121</v>
       </c>
       <c r="F149" t="n">
-        <v>752482</v>
+        <v>752483</v>
       </c>
       <c r="G149" t="n">
         <v>-70</v>
@@ -16823,7 +16823,7 @@
         <v>2.011494252873569</v>
       </c>
       <c r="F150" t="n">
-        <v>312430</v>
+        <v>312436</v>
       </c>
       <c r="G150" t="n">
         <v>30000</v>
@@ -16932,7 +16932,7 @@
         <v>-1.569653368214519</v>
       </c>
       <c r="F151" t="n">
-        <v>1491285</v>
+        <v>1491359</v>
       </c>
       <c r="G151" t="n">
         <v>-190</v>
@@ -17041,7 +17041,7 @@
         <v>2.39808153477219</v>
       </c>
       <c r="F152" t="n">
-        <v>202613</v>
+        <v>202650</v>
       </c>
       <c r="G152" t="n">
         <v>-250</v>
@@ -17150,7 +17150,7 @@
         <v>1.017441860465107</v>
       </c>
       <c r="F153" t="n">
-        <v>303271</v>
+        <v>303303</v>
       </c>
       <c r="G153" t="n">
         <v>0</v>
@@ -17259,7 +17259,7 @@
         <v>1.631701631701632</v>
       </c>
       <c r="F154" t="n">
-        <v>104531</v>
+        <v>104536</v>
       </c>
       <c r="G154" t="n">
         <v>4500</v>
@@ -17368,7 +17368,7 @@
         <v>-0.4434589800443423</v>
       </c>
       <c r="F155" t="n">
-        <v>1454304</v>
+        <v>1456234</v>
       </c>
       <c r="G155" t="n">
         <v>-600</v>
@@ -17477,7 +17477,7 @@
         <v>-1.451612903225807</v>
       </c>
       <c r="F156" t="n">
-        <v>204330</v>
+        <v>204331</v>
       </c>
       <c r="G156" t="n">
         <v>1000</v>
@@ -17588,7 +17588,7 @@
         <v>-2.87081339712919</v>
       </c>
       <c r="F157" t="n">
-        <v>535768</v>
+        <v>536143</v>
       </c>
       <c r="G157" t="n">
         <v>-200</v>
@@ -17699,7 +17699,7 @@
         <v>-1.357466063348411</v>
       </c>
       <c r="F158" t="n">
-        <v>1050677</v>
+        <v>1050913</v>
       </c>
       <c r="G158" t="n">
         <v>2500</v>
@@ -17917,7 +17917,7 @@
         <v>-0.115074798619097</v>
       </c>
       <c r="F160" t="n">
-        <v>92140</v>
+        <v>92151</v>
       </c>
       <c r="G160" t="n">
         <v>3300</v>
@@ -18028,7 +18028,7 @@
         <v>3.047619047619055</v>
       </c>
       <c r="F161" t="n">
-        <v>977510</v>
+        <v>977517</v>
       </c>
       <c r="G161" t="n">
         <v>250</v>
@@ -18139,7 +18139,7 @@
         <v>-1.092896174863389</v>
       </c>
       <c r="F162" t="n">
-        <v>12273</v>
+        <v>12275</v>
       </c>
       <c r="G162" t="n">
         <v>-6000</v>
@@ -18357,7 +18357,7 @@
         <v>0.756756756756749</v>
       </c>
       <c r="F164" t="n">
-        <v>1065994</v>
+        <v>1065997</v>
       </c>
       <c r="G164" t="n">
         <v>30</v>
@@ -18468,7 +18468,7 @@
         <v>1.21654501216546</v>
       </c>
       <c r="F165" t="n">
-        <v>21397</v>
+        <v>21405</v>
       </c>
       <c r="G165" t="n">
         <v>-1500</v>
@@ -18577,7 +18577,7 @@
         <v>3.320053120849931</v>
       </c>
       <c r="F166" t="n">
-        <v>1914390</v>
+        <v>1914441</v>
       </c>
       <c r="G166" t="n">
         <v>2500</v>
@@ -18686,7 +18686,7 @@
         <v>0.2232142857142794</v>
       </c>
       <c r="F167" t="n">
-        <v>123042</v>
+        <v>123127</v>
       </c>
       <c r="G167" t="n">
         <v>300</v>
@@ -18795,7 +18795,7 @@
         <v>-1.45631067961165</v>
       </c>
       <c r="F168" t="n">
-        <v>197857</v>
+        <v>197957</v>
       </c>
       <c r="G168" t="n">
         <v>-2100</v>
@@ -18906,7 +18906,7 @@
         <v>-0.5681818181818232</v>
       </c>
       <c r="F169" t="n">
-        <v>413122</v>
+        <v>413132</v>
       </c>
       <c r="G169" t="n">
         <v>50</v>
@@ -19015,7 +19015,7 @@
         <v>0.9302325581395321</v>
       </c>
       <c r="F170" t="n">
-        <v>206624</v>
+        <v>206910</v>
       </c>
       <c r="G170" t="n">
         <v>4200</v>
@@ -19126,7 +19126,7 @@
         <v>6.428571428571428</v>
       </c>
       <c r="F171" t="n">
-        <v>1098509</v>
+        <v>1098814</v>
       </c>
       <c r="G171" t="n">
         <v>800</v>
@@ -19235,7 +19235,7 @@
         <v>6.428049671292912</v>
       </c>
       <c r="F172" t="n">
-        <v>850345</v>
+        <v>850422</v>
       </c>
       <c r="G172" t="n">
         <v>270</v>
@@ -19344,7 +19344,7 @@
         <v>4.485488126649084</v>
       </c>
       <c r="F173" t="n">
-        <v>355114</v>
+        <v>355314</v>
       </c>
       <c r="G173" t="n">
         <v>1100</v>
@@ -19453,7 +19453,7 @@
         <v>4.47976878612717</v>
       </c>
       <c r="F174" t="n">
-        <v>383635</v>
+        <v>383647</v>
       </c>
       <c r="G174" t="n">
         <v>-200</v>
@@ -19562,7 +19562,7 @@
         <v>-1.598332175121608</v>
       </c>
       <c r="F175" t="n">
-        <v>678824</v>
+        <v>679158</v>
       </c>
       <c r="G175" t="n">
         <v>170</v>
@@ -19673,7 +19673,7 @@
         <v>-1.287128712871288</v>
       </c>
       <c r="F176" t="n">
-        <v>201012</v>
+        <v>201084</v>
       </c>
       <c r="G176" t="n">
         <v>9300</v>
@@ -20002,7 +20002,7 @@
         <v>3.432930705657977</v>
       </c>
       <c r="F179" t="n">
-        <v>182842</v>
+        <v>182853</v>
       </c>
       <c r="G179" t="n">
         <v>1000</v>
@@ -20111,7 +20111,7 @@
         <v>19.73244147157192</v>
       </c>
       <c r="F180" t="n">
-        <v>527619</v>
+        <v>527768</v>
       </c>
       <c r="G180" t="n">
         <v>7950</v>
@@ -20220,7 +20220,7 @@
         <v>-3.361344537815125</v>
       </c>
       <c r="F181" t="n">
-        <v>4231973</v>
+        <v>4234973</v>
       </c>
       <c r="G181" t="n">
         <v>40</v>
@@ -20329,7 +20329,7 @@
         <v>0.2427184466019527</v>
       </c>
       <c r="F182" t="n">
-        <v>493433</v>
+        <v>493443</v>
       </c>
       <c r="G182" t="n">
         <v>660</v>
@@ -20549,7 +20549,7 @@
         <v>3.465346534653468</v>
       </c>
       <c r="F184" t="n">
-        <v>3100089</v>
+        <v>3101704</v>
       </c>
       <c r="G184" t="n">
         <v>2600</v>
@@ -20658,7 +20658,7 @@
         <v>4.615384615384621</v>
       </c>
       <c r="F185" t="n">
-        <v>509245</v>
+        <v>509326</v>
       </c>
       <c r="G185" t="n">
         <v>1800</v>
@@ -20767,7 +20767,7 @@
         <v>1.02647217720151</v>
       </c>
       <c r="F186" t="n">
-        <v>208032</v>
+        <v>208055</v>
       </c>
       <c r="G186" t="n">
         <v>3800</v>
@@ -20878,7 +20878,7 @@
         <v>0.1798561151079126</v>
       </c>
       <c r="F187" t="n">
-        <v>483116</v>
+        <v>483252</v>
       </c>
       <c r="G187" t="n">
         <v>-2000</v>
@@ -20987,7 +20987,7 @@
         <v>5.974842767295607</v>
       </c>
       <c r="F188" t="n">
-        <v>1328963</v>
+        <v>1329895</v>
       </c>
       <c r="G188" t="n">
         <v>15000</v>
@@ -21096,7 +21096,7 @@
         <v>4.31034482758621</v>
       </c>
       <c r="F189" t="n">
-        <v>92073</v>
+        <v>92074</v>
       </c>
       <c r="G189" t="n">
         <v>1600</v>
@@ -21205,7 +21205,7 @@
         <v>3.750000000000009</v>
       </c>
       <c r="F190" t="n">
-        <v>350983</v>
+        <v>350993</v>
       </c>
       <c r="G190" t="n">
         <v>450</v>
@@ -21314,7 +21314,7 @@
         <v>1.000000000000001</v>
       </c>
       <c r="F191" t="n">
-        <v>579509</v>
+        <v>579748</v>
       </c>
       <c r="G191" t="n">
         <v>-1300</v>
@@ -21423,7 +21423,7 @@
         <v>6.793048973143767</v>
       </c>
       <c r="F192" t="n">
-        <v>5771172</v>
+        <v>5771971</v>
       </c>
       <c r="G192" t="n">
         <v>140</v>
@@ -21532,7 +21532,7 @@
         <v>7.381615598885793</v>
       </c>
       <c r="F193" t="n">
-        <v>1131531</v>
+        <v>1131793</v>
       </c>
       <c r="G193" t="n">
         <v>2800</v>
@@ -21746,7 +21746,7 @@
         <v>0.1941747572815622</v>
       </c>
       <c r="F195" t="n">
-        <v>417607</v>
+        <v>417657</v>
       </c>
       <c r="G195" t="n">
         <v>-150</v>
@@ -21855,7 +21855,7 @@
         <v>-3.77777777777778</v>
       </c>
       <c r="F196" t="n">
-        <v>793449</v>
+        <v>793459</v>
       </c>
       <c r="G196" t="n">
         <v>-300</v>
@@ -21966,7 +21966,7 @@
         <v>-2.279202279202275</v>
       </c>
       <c r="F197" t="n">
-        <v>1175347</v>
+        <v>1175589</v>
       </c>
       <c r="G197" t="n">
         <v>50</v>
@@ -22075,7 +22075,7 @@
         <v>7.14285714285714</v>
       </c>
       <c r="F198" t="n">
-        <v>5411014</v>
+        <v>5422030</v>
       </c>
       <c r="G198" t="n">
         <v>270</v>
@@ -22184,7 +22184,7 @@
         <v>1.202185792349719</v>
       </c>
       <c r="F199" t="n">
-        <v>29771</v>
+        <v>29773</v>
       </c>
       <c r="G199" t="n">
         <v>1500</v>
@@ -22293,7 +22293,7 @@
         <v>10.99611901681758</v>
       </c>
       <c r="F200" t="n">
-        <v>340951</v>
+        <v>340992</v>
       </c>
       <c r="G200" t="n">
         <v>4900</v>
@@ -22402,7 +22402,7 @@
         <v>4.555808656036442</v>
       </c>
       <c r="F201" t="n">
-        <v>2095302</v>
+        <v>2096037</v>
       </c>
       <c r="G201" t="n">
         <v>2350</v>
